--- a/LOSMST.API/wwwroot/banggiadaumonhon.xlsx
+++ b/LOSMST.API/wwwroot/banggiadaumonhon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\CN9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C8C29-AE00-4C53-B73D-ADCF43FA63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FC09A-6ACB-478C-B74A-3BFB3DA4BB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="13">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="G2" s="14">
         <v>90</v>
@@ -1317,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3" s="21">
         <v>12</v>

--- a/LOSMST.API/wwwroot/banggiadaumonhon.xlsx
+++ b/LOSMST.API/wwwroot/banggiadaumonhon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\CN9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FC09A-6ACB-478C-B74A-3BFB3DA4BB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C541154-FDE0-474F-B5B1-871912F71A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -56,36 +56,6 @@
   </si>
   <si>
     <t>Dầu động cơ xe máy</t>
-  </si>
-  <si>
-    <t>0001L00220</t>
-  </si>
-  <si>
-    <t>2.2 lít</t>
-  </si>
-  <si>
-    <t>0001L00240</t>
-  </si>
-  <si>
-    <t>2.4 lít</t>
-  </si>
-  <si>
-    <t>0001L00250</t>
-  </si>
-  <si>
-    <t>2.5 lít</t>
-  </si>
-  <si>
-    <t>0002H00220</t>
-  </si>
-  <si>
-    <t>Dầu mỡ nhờn okela</t>
-  </si>
-  <si>
-    <t>hộp</t>
-  </si>
-  <si>
-    <t>Dầu động cơ ô tô</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1212,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1294,108 +1264,52 @@
         <v>11</v>
       </c>
       <c r="F2" s="13">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="14">
-        <v>90</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="20">
-        <v>100</v>
-      </c>
-      <c r="G3" s="21">
-        <v>12</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="27">
-        <v>490</v>
-      </c>
-      <c r="G4" s="28">
-        <v>490</v>
-      </c>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="34">
-        <v>9</v>
-      </c>
-      <c r="G5" s="35">
-        <v>9</v>
-      </c>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="41">
-        <v>10</v>
-      </c>
-      <c r="G6" s="42">
-        <v>55</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A6:E6 A2:E2 A3:E3 A4:E4 A5:E5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A2:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>